--- a/criardataset/ojb/Yochanan II_output.xlsx
+++ b/criardataset/ojb/Yochanan II_output.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,8 @@
     <col width="4526.4" customWidth="1" min="7" max="7"/>
     <col width="3754.8" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="314.4" customWidth="1" min="10" max="10"/>
+    <col width="282" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.2" customHeight="1">
@@ -509,6 +511,16 @@
           <t>Ibn</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Onkelos</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="68.2" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -544,6 +556,16 @@
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>“Go, gather the elders of Yisrael, and say to them, ‘Adonoy, the God of your fathers appeared [&lt;b&gt;became revealed&lt;/b&gt;] to me—the God of Avraham, Yitzchok and Yaakov—saying, “I have indeed been mindful of you, regarding that which is being done to you in Egypt.</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Go, and assemble the elders of Israel, and say to them, The Lord God of your fathers hath appeared unto me, the God of Abraham, Izhak, and Jakob, saying, Remembering, I have remembered you, and the injury that is done you in Mizraim;</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="68.2" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -583,6 +605,16 @@
         </is>
       </c>
       <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>And there has not ever arisen a prophet within Yisroel like Moshe, whom Adonoy knew [&lt;b&gt;appeared to&lt;/b&gt;] face-to-face.</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>But no prophet hath again risen in Israel like unto Mosheh, because the Word of the Lord had known him to speak with him word for word,</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
